--- a/Documents/Daily Tracking.xlsx
+++ b/Documents/Daily Tracking.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rohan\Personal\Courses\Summer Of Code\SPDX\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rohan\Personal\Courses\Summer Of Code\SPDX\license-mgmt\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C60FC51-178D-480F-8F6E-51B2373CDD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485743BC-EC6E-48BE-8324-F48627FDE038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1152" windowWidth="21600" windowHeight="11328" xr2:uid="{314A3CD8-E62D-4AB6-B492-55543B03019C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{314A3CD8-E62D-4AB6-B492-55543B03019C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="90">
   <si>
     <t>Date</t>
   </si>
@@ -260,9 +260,6 @@
     <t>View and functions for searching all licenses</t>
   </si>
   <si>
-    <t>Approve/ Reject Liceses</t>
-  </si>
-  <si>
     <t>UI for approver to approve/ reject licenes</t>
   </si>
   <si>
@@ -282,6 +279,30 @@
   </si>
   <si>
     <t>Trigger to fill model on POST request and save the  model object</t>
+  </si>
+  <si>
+    <t>Approve/ Reject Licenses</t>
+  </si>
+  <si>
+    <t>License Tracking feature</t>
+  </si>
+  <si>
+    <t>View and functions to view the license tracking</t>
+  </si>
+  <si>
+    <t>UI to view the license tracking details and Ajax calls to search and sort the table</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard population </t>
+  </si>
+  <si>
+    <t>View to populate dashboard with license aggregation counts</t>
+  </si>
+  <si>
+    <t>Last login changes</t>
+  </si>
+  <si>
+    <t>Adding a feature to view the changes since last login</t>
   </si>
 </sst>
 </file>
@@ -708,7 +729,7 @@
   <dimension ref="A1:AB1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="E58" sqref="E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -716,7 +737,7 @@
     <col min="1" max="1" width="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="38.88671875" customWidth="1"/>
     <col min="5" max="5" width="61.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -902,7 +923,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>19</v>
@@ -1532,7 +1553,7 @@
         <v>48</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" s="4" t="s">
         <v>10</v>
@@ -2201,10 +2222,10 @@
         <v>67</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>10</v>
@@ -2243,10 +2264,10 @@
         <v>67</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>10</v>
@@ -2285,10 +2306,10 @@
         <v>67</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>10</v>
@@ -2327,10 +2348,10 @@
         <v>14</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>10</v>
@@ -2359,12 +2380,24 @@
       <c r="AB39" s="1"/>
     </row>
     <row r="40" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
+      <c r="A40" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2389,12 +2422,24 @@
       <c r="AB40" s="1"/>
     </row>
     <row r="41" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
+      <c r="A41" s="3">
+        <v>44733</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -2419,12 +2464,24 @@
       <c r="AB41" s="1"/>
     </row>
     <row r="42" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
+      <c r="A42" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2449,12 +2506,24 @@
       <c r="AB42" s="1"/>
     </row>
     <row r="43" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
+      <c r="A43" s="3">
+        <v>44733</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -2479,12 +2548,24 @@
       <c r="AB43" s="1"/>
     </row>
     <row r="44" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
+      <c r="A44" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2509,12 +2590,24 @@
       <c r="AB44" s="1"/>
     </row>
     <row r="45" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
+      <c r="A45" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -2539,12 +2632,24 @@
       <c r="AB45" s="1"/>
     </row>
     <row r="46" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
+      <c r="A46" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -2569,12 +2674,24 @@
       <c r="AB46" s="1"/>
     </row>
     <row r="47" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
+      <c r="A47" s="3">
+        <v>44734</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>

--- a/Documents/Daily Tracking.xlsx
+++ b/Documents/Daily Tracking.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rohan\Personal\Courses\Summer Of Code\SPDX\license-mgmt\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485743BC-EC6E-48BE-8324-F48627FDE038}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D990B375-F4DE-4C97-B00D-BE49F09480F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{314A3CD8-E62D-4AB6-B492-55543B03019C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="101">
   <si>
     <t>Date</t>
   </si>
@@ -303,6 +303,39 @@
   </si>
   <si>
     <t>Adding a feature to view the changes since last login</t>
+  </si>
+  <si>
+    <t>Customizing models view</t>
+  </si>
+  <si>
+    <t>Customized the model list view for the admin</t>
+  </si>
+  <si>
+    <t>Success and Error comments</t>
+  </si>
+  <si>
+    <t>Added success and error comments for each successful POST request</t>
+  </si>
+  <si>
+    <t>Udated views to show success and error comments for each successful POST request</t>
+  </si>
+  <si>
+    <t>Validations and session context</t>
+  </si>
+  <si>
+    <t>Addedvalidations for each view and added session context</t>
+  </si>
+  <si>
+    <t>Comment option in Edit form</t>
+  </si>
+  <si>
+    <t>UI design to include a textbox for comments with validations</t>
+  </si>
+  <si>
+    <t>View to retrieve the comment and store it in the licenseTracking table</t>
+  </si>
+  <si>
+    <t>Comment option in Approve/Reject form</t>
   </si>
 </sst>
 </file>
@@ -729,7 +762,7 @@
   <dimension ref="A1:AB1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,7 +771,7 @@
     <col min="2" max="2" width="19.44140625" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="38.88671875" customWidth="1"/>
-    <col min="5" max="5" width="61.5546875" customWidth="1"/>
+    <col min="5" max="5" width="78.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2716,12 +2749,24 @@
       <c r="AB47" s="1"/>
     </row>
     <row r="48" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
+      <c r="A48" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -2746,12 +2791,24 @@
       <c r="AB48" s="1"/>
     </row>
     <row r="49" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="A49" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -2776,12 +2833,24 @@
       <c r="AB49" s="1"/>
     </row>
     <row r="50" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
+      <c r="A50" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -2806,12 +2875,24 @@
       <c r="AB50" s="1"/>
     </row>
     <row r="51" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
+      <c r="A51" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
@@ -2836,12 +2917,24 @@
       <c r="AB51" s="1"/>
     </row>
     <row r="52" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
+      <c r="A52" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
@@ -2866,12 +2959,24 @@
       <c r="AB52" s="1"/>
     </row>
     <row r="53" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
+      <c r="A53" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
@@ -2896,12 +3001,24 @@
       <c r="AB53" s="1"/>
     </row>
     <row r="54" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
+      <c r="A54" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
@@ -2926,12 +3043,24 @@
       <c r="AB54" s="1"/>
     </row>
     <row r="55" spans="1:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1"/>
-      <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
+      <c r="A55" s="3">
+        <v>44735</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G55" s="1"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
